--- a/docs/resources/samples/conditional-formatting-samples.xlsx
+++ b/docs/resources/samples/conditional-formatting-samples.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\office-scripts-docs\docs\resources\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378782E9-B3D3-47D1-90BC-B2E671BFF5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DE5495-8D90-4151-AA79-E4516399C6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{84E04AB4-1520-4029-A9A3-B4669A97007A}"/>
   </bookViews>
@@ -249,8 +249,24 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="4">
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8696B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -259,6 +275,10 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -267,58 +287,14 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8696B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
-        <b val="0"/>
-        <i/>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF90EE90"/>
         </patternFill>
       </fill>
     </dxf>
@@ -655,12 +631,12 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -676,7 +652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -684,7 +660,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -692,7 +668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -700,7 +676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -708,7 +684,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -716,7 +692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -724,7 +700,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -732,7 +708,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -740,7 +716,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -748,7 +724,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -772,13 +748,13 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>15</v>
       </c>
@@ -816,7 +792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -857,7 +833,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -912,9 +888,9 @@
       <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>31</v>
       </c>
@@ -925,7 +901,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -939,7 +915,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -953,7 +929,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -967,7 +943,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -994,9 +970,12 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1012,7 +991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1020,7 +999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1028,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1036,7 +1015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1044,7 +1023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1052,7 +1031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1060,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1068,7 +1047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1076,7 +1055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1084,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1105,9 +1084,9 @@
       <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>31</v>
       </c>
@@ -1118,7 +1097,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1132,7 +1111,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1146,7 +1125,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1157,7 +1136,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1178,20 +1157,20 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="G15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1199,7 +1178,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1207,7 +1186,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1215,7 +1194,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1223,7 +1202,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1241,12 +1220,12 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>31</v>
       </c>
@@ -1257,7 +1236,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1271,7 +1250,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1285,7 +1264,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1299,7 +1278,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1323,17 +1302,17 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1"/>
-    <col min="5" max="5" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>45</v>
       </c>
@@ -1356,7 +1335,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>

--- a/docs/resources/samples/conditional-formatting-samples.xlsx
+++ b/docs/resources/samples/conditional-formatting-samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\office-scripts-docs\docs\resources\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DE5495-8D90-4151-AA79-E4516399C6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EC41AB-D2C7-4DD9-8ECC-A417FC9644EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{84E04AB4-1520-4029-A9A3-B4669A97007A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{84E04AB4-1520-4029-A9A3-B4669A97007A}"/>
   </bookViews>
   <sheets>
     <sheet name="CellValue" sheetId="1" r:id="rId1"/>
@@ -249,43 +249,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8696B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF008000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF90EE90"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -630,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FCF7B2-E9F7-48A4-8DF9-BACF2FA915DD}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -1301,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77872D58-08A1-4283-8DF7-DA73F18CCC93}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
